--- a/Conveyor_capa_angle.xlsx
+++ b/Conveyor_capa_angle.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7384E063-BA8F-4128-867A-D0EA979132D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5F8F4-6E7C-4335-98E8-C5A9277FBAC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29475" yWindow="1395" windowWidth="26055" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="795" windowWidth="26055" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chutes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Screw conveyor under an angle</t>
   </si>
@@ -42,15 +43,30 @@
   <si>
     <t>Volume_50</t>
   </si>
+  <si>
+    <t>Dry product ONLY</t>
+  </si>
+  <si>
+    <t>Conveyor discharge</t>
+  </si>
+  <si>
+    <t>WARNING the chute corner edge must also</t>
+  </si>
+  <si>
+    <t>be steeper than 25 degree with the vertical</t>
+  </si>
+  <si>
+    <t>Wet product ONLY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,16 +74,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -75,14 +113,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1145,6 +1240,1053 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Rechte verbindingslijn 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6F638F-28B2-4F4F-9494-DCA4228013CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="2124075"/>
+          <a:ext cx="438150" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Rechte verbindingslijn 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF02322-4B9C-4989-970B-401EE2EC267A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5514975" y="2133600"/>
+          <a:ext cx="304801" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Rechte verbindingslijn 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7492BE0E-3884-420B-885F-0A5975F05520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4257675" y="3067051"/>
+          <a:ext cx="1276350" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599807</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Rechte verbindingslijn 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954B94FE-E199-43D8-8B8F-560DDD2351CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257407" y="1714500"/>
+          <a:ext cx="19318" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Tekstballon: rechthoek 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02DD19E-B1CB-4D29-9427-211350341175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2238375"/>
+          <a:ext cx="914400" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109375"/>
+            <a:gd name="adj2" fmla="val 3484"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>25 degree to the vertical or steeper</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Rechte verbindingslijn 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BF5930-9C36-4439-8247-0AFC7503349D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="2057400"/>
+          <a:ext cx="438150" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Rechte verbindingslijn 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B391EBB-CE13-49DE-9A62-53DF919E1FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5514975" y="2066925"/>
+          <a:ext cx="304801" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Rechte verbindingslijn 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256764B1-B6AC-4334-BDC4-71CAEC97C148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4257675" y="3000376"/>
+          <a:ext cx="1276350" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599807</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Rechte verbindingslijn 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483CE3FD-D4C0-48FF-B1BA-694E5C9A7A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257407" y="1657350"/>
+          <a:ext cx="19318" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Tekstballon: rechthoek 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA527DF-C426-48DC-AF10-7DABECF50CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2238375"/>
+          <a:ext cx="914400" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109375"/>
+            <a:gd name="adj2" fmla="val 3484"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>25 degree to the vertical or steeper</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Rechte verbindingslijn 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E13C158-5C83-4AEA-BD28-2C604338FD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="2066925"/>
+          <a:ext cx="19051" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Rechte verbindingslijn 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E47EEFE-C0BB-47D9-A491-31E9918E4C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4257675" y="3000376"/>
+          <a:ext cx="1276350" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599807</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Rechte verbindingslijn 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6E4D1E-1380-441B-9F71-33D2D4C555B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257407" y="1657350"/>
+          <a:ext cx="19318" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Tekstballon: rechthoek 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6355BBD3-F94B-4501-850A-7DC361845080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2238375"/>
+          <a:ext cx="914400" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109375"/>
+            <a:gd name="adj2" fmla="val 3484"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>25 degree to the vertical or steeper</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Rechte verbindingslijn 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFFC87E-9773-4F07-8DC8-8A4BE97D0724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="2053828"/>
+          <a:ext cx="11906" cy="988219"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Rechte verbindingslijn 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF0118C-6264-4770-BD5F-9827D760BA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="3019425"/>
+          <a:ext cx="1" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Rechte verbindingslijn 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6551C736-CB5A-45F2-B4C7-0094BBCC1DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4257675" y="3000376"/>
+          <a:ext cx="1276350" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599807</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Rechte verbindingslijn 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A164ACE-029D-4AE4-8EE7-50A7894C55A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257407" y="1657350"/>
+          <a:ext cx="19318" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Tekstballon: rechthoek 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F873DF0D-2186-453D-9BD3-9BC090935E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2238375"/>
+          <a:ext cx="914400" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109375"/>
+            <a:gd name="adj2" fmla="val 3484"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>vertical or diverging</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1410,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
@@ -1454,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <f>E10/$E$10</f>
+        <f t="shared" ref="B10:B16" si="0">E10/$E$10</f>
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -1466,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <f>E11/$E$10</f>
+        <f t="shared" si="0"/>
         <v>0.88871912401324171</v>
       </c>
       <c r="E11" s="1">
@@ -1478,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f>E12/$E$10</f>
+        <f t="shared" si="0"/>
         <v>0.77784568372803664</v>
       </c>
       <c r="E12" s="1">
@@ -1490,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <f>E13/$E$10</f>
+        <f t="shared" si="0"/>
         <v>0.66725235548764961</v>
       </c>
       <c r="E13" s="1">
@@ -1502,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <f>E14/$E$10</f>
+        <f t="shared" si="0"/>
         <v>0.55832187420422708</v>
       </c>
       <c r="E14" s="1">
@@ -1514,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f>E15/$E$10</f>
+        <f t="shared" si="0"/>
         <v>0.45447415329768276</v>
       </c>
       <c r="E15" s="1">
@@ -1526,7 +2668,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="2">
-        <f>E16/$E$10</f>
+        <f t="shared" si="0"/>
         <v>0.36755029284441049</v>
       </c>
       <c r="E16" s="1">
@@ -1537,4 +2679,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570CE2B9-4E5B-4772-AB2D-A86D71579CF6}">
+  <dimension ref="D3:V24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="4:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="4:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="R8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Conveyor_capa_angle.xlsx
+++ b/Conveyor_capa_angle.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5F8F4-6E7C-4335-98E8-C5A9277FBAC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6DBFF-BBCC-43C7-858C-61C9A155C7ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="795" windowWidth="26055" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Screw conveyor under an angle</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>Conveyor discharge</t>
-  </si>
-  <si>
-    <t>WARNING the chute corner edge must also</t>
-  </si>
-  <si>
-    <t>be steeper than 25 degree with the vertical</t>
   </si>
   <si>
     <t>Wet product ONLY</t>
@@ -1781,7 +1775,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>25 degree to the vertical or steeper</a:t>
+            <a:t>30 degree to the vertical or steeper</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2685,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570CE2B9-4E5B-4772-AB2D-A86D71579CF6}">
   <dimension ref="D3:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,7 +2790,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="R8" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -2977,9 +2971,7 @@
     <row r="18" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2998,9 +2990,7 @@
     <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
